--- a/biology/Zoologie/Drongo_de_la_Sonde/Drongo_de_la_Sonde.xlsx
+++ b/biology/Zoologie/Drongo_de_la_Sonde/Drongo_de_la_Sonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus densus
 Le Drongo de la Sonde (Dicrurus densus) est une espèce d'oiseaux de la famille des Dicruridae. Il est présent dans différentes îles d'Indonésie et du Timor oriental. Il était autrefois considéré comme conspécifique du Drongo à crinière (Dicrurus hottentottus).
@@ -513,11 +525,13 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition du Drongo de la Sonde est très grande et ne s'approche pas du seuil de vulnérabilité selon le critère de la taille de celle-ci. Elle s'étend sur plus de 20 000 km2.
 La tendance d'évolution de la population n'est pas connue, mais a priori elle ne décline pas rapidement ; la taille de la population est considérée comme suffisamment grande pour que l'espèce ne soit pas qualifiée de vulnérable selon ce critère.
-Pour ces raisons, l'espèce est classée dans la catégorie Préoccupation mineure par l'UICN[1].
+Pour ces raisons, l'espèce est classée dans la catégorie Préoccupation mineure par l'UICN.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les six sous-espèces suivantes sont reconnues[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les six sous-espèces suivantes sont reconnues, :
 D. densus densus (Bonaparte, 1850) Drongo de la Sonde
 Roti, Timor, Wetar et Sermata
 D. densus vicinus (Rensch, 1928) Petit drongo de la Sonde
@@ -588,12 +604,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dicrurus densus (Bonaparte, 1850)[4].
-L'espèce a été initialement classée dans le genre Edolius sous le protonyme Edolius densus Bonaparte, 1850[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Drongo de la Sonde[4].
-Dicrurus densus a pour synonyme Edolius densus Bonaparte, 1850[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dicrurus densus (Bonaparte, 1850).
+L'espèce a été initialement classée dans le genre Edolius sous le protonyme Edolius densus Bonaparte, 1850.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Drongo de la Sonde.
+Dicrurus densus a pour synonyme Edolius densus Bonaparte, 1850.
 </t>
         </is>
       </c>
